--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL2.90days.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL2.90days.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -456,16 +456,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.704037964541116</v>
+        <v>0.704037964541114</v>
       </c>
       <c r="E2" t="n">
-        <v>0.36272872391999</v>
+        <v>0.362728723919991</v>
       </c>
       <c r="F2" t="n">
         <v>2.02190060889527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.993113487115299</v>
+        <v>0.993113487115297</v>
       </c>
       <c r="H2" t="n">
         <v>4.11642991993366</v>
@@ -474,7 +474,7 @@
         <v>1.94094902916045</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0522644601718678</v>
+        <v>0.0522644601718685</v>
       </c>
       <c r="K2" t="n">
         <v>1029</v>
@@ -494,13 +494,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.528334780136634</v>
+        <v>-0.528334780136633</v>
       </c>
       <c r="E3" t="n">
         <v>0.530424073221081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.589585942906909</v>
+        <v>0.58958594290691</v>
       </c>
       <c r="G3" t="n">
         <v>0.208468784485403</v>
@@ -509,10 +509,10 @@
         <v>1.66745148407468</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.996061089249288</v>
+        <v>-0.996061089249287</v>
       </c>
       <c r="J3" t="n">
-        <v>0.319220464209653</v>
+        <v>0.319220464209654</v>
       </c>
       <c r="K3" t="n">
         <v>493</v>
@@ -532,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.840815927943705</v>
+        <v>0.840815927943706</v>
       </c>
       <c r="E4" t="n">
         <v>0.427744719046097</v>
@@ -550,7 +550,7 @@
         <v>1.96569563691818</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0493337791244444</v>
+        <v>0.0493337791244443</v>
       </c>
       <c r="K4" t="n">
         <v>1029</v>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0444304324697362</v>
+        <v>-0.0444304324697361</v>
       </c>
       <c r="E5" t="n">
         <v>0.581874637889331</v>
@@ -585,10 +585,10 @@
         <v>2.99230459416514</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0763573965534938</v>
+        <v>-0.0763573965534935</v>
       </c>
       <c r="J5" t="n">
-        <v>0.93913476323248</v>
+        <v>0.939134763232481</v>
       </c>
       <c r="K5" t="n">
         <v>493</v>
@@ -617,10 +617,10 @@
         <v>2.41051276094124</v>
       </c>
       <c r="G6" t="n">
-        <v>0.707051604492257</v>
+        <v>0.707051604492258</v>
       </c>
       <c r="H6" t="n">
-        <v>8.21803066953395</v>
+        <v>8.21803066953393</v>
       </c>
       <c r="I6" t="n">
         <v>1.40603171003883</v>
@@ -655,16 +655,16 @@
         <v>0.287290449368988</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0321081296772878</v>
+        <v>0.0321081296772877</v>
       </c>
       <c r="H7" t="n">
-        <v>2.57055777238304</v>
+        <v>2.57055777238305</v>
       </c>
       <c r="I7" t="n">
         <v>-1.11556538379896</v>
       </c>
       <c r="J7" t="n">
-        <v>0.264608216429453</v>
+        <v>0.264608216429454</v>
       </c>
       <c r="K7" t="n">
         <v>493</v>
@@ -699,7 +699,7 @@
         <v>3.44544073228527</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.8729541501279</v>
+        <v>-0.872954150127899</v>
       </c>
       <c r="J8" t="n">
         <v>0.382688069240346</v>
@@ -722,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0239826178180292</v>
+        <v>0.0239826178180267</v>
       </c>
       <c r="E9" t="n">
         <v>1.2293021251449</v>
@@ -731,16 +731,16 @@
         <v>1.02427251364466</v>
       </c>
       <c r="G9" t="n">
-        <v>0.092047590515738</v>
+        <v>0.0920475905157376</v>
       </c>
       <c r="H9" t="n">
         <v>11.3977365005397</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01950913231782</v>
+        <v>0.0195091323178179</v>
       </c>
       <c r="J9" t="n">
-        <v>0.984434951894296</v>
+        <v>0.984434951894298</v>
       </c>
       <c r="K9" t="n">
         <v>493</v>
